--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_7_25.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_7_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1560009.5218685</v>
+        <v>1557803.428462061</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7094780.682604723</v>
+        <v>7094780.682604726</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673438</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -662,22 +662,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>387.4075385397311</v>
+        <v>14.03010001174249</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>161.412532220864</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>69.9268023686664</v>
       </c>
       <c r="S2" t="n">
-        <v>180.0198424776875</v>
+        <v>180.0198424776872</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>59.72417562051513</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -750,13 +750,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.6625960688247</v>
       </c>
       <c r="H3" t="n">
         <v>105.6591799828218</v>
       </c>
       <c r="I3" t="n">
-        <v>65.95263903154859</v>
+        <v>65.95263903154836</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>57.88099638015522</v>
+        <v>57.88099638015482</v>
       </c>
       <c r="S3" t="n">
-        <v>159.035360425222</v>
+        <v>159.0353604252219</v>
       </c>
       <c r="T3" t="n">
         <v>197.4201388450818</v>
@@ -795,10 +795,10 @@
         <v>225.8965846405547</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>106.4576710992027</v>
       </c>
       <c r="W3" t="n">
-        <v>95.48147952963994</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -823,22 +823,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>82.08713730977114</v>
+        <v>167.4201179865476</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1516959462661</v>
+        <v>157.151695946266</v>
       </c>
       <c r="I4" t="n">
-        <v>138.28311657924</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>52.99928112255609</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>106.9623316486621</v>
       </c>
     </row>
     <row r="5">
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -905,10 +905,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>38.89244521372147</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -950,16 +950,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>182.3603339273697</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>166.5331836498671</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -1029,7 +1029,7 @@
         <v>196.8897623984489</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8879277888683</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>4.440065804380628</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1111,13 +1111,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>155.2114886365809</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1136,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>139.1804672355039</v>
+        <v>386.8991786482095</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,25 +1178,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>59.66385641544537</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1303,7 +1303,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>59.7268375758684</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,7 +1421,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1543,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>57.22579106484378</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>215.6933112356071</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1765,19 +1765,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>121.8558017623731</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>161.5073577626369</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1859,10 +1859,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873206</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292629</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.187761788176</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851119</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247759</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734026365</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>160.8768250217182</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,13 +2050,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.769025331442</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>40.31924309660195</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2093,13 +2093,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534543</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873206</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292632</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881761</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2144,7 +2144,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784703</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.5968754185112</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.8172186824776</v>
+        <v>18.81721868247744</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,10 +2205,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734101615</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414548</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T21" t="n">
         <v>190.7165703189231</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>189.769025331442</v>
+        <v>84.6947366044282</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>202.442517295124</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2476,25 +2476,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>141.6112884807101</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,25 +2521,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>191.6662024438896</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744755</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>202.4425172951285</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2807,7 +2807,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873208</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -2889,7 +2889,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2953,13 +2953,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>126.9420309065163</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3001,10 +3001,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>270.0697021486463</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>163.689844124971</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>28.11588815676565</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3241,16 +3241,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>347.2384253774348</v>
+        <v>347.2384253774349</v>
       </c>
       <c r="C35" t="n">
         <v>329.7774754849618</v>
@@ -3272,7 +3272,7 @@
         <v>319.1876253346372</v>
       </c>
       <c r="E35" t="n">
-        <v>346.434953786216</v>
+        <v>346.4349537862161</v>
       </c>
       <c r="F35" t="n">
         <v>371.3806294556657</v>
@@ -3284,7 +3284,7 @@
         <v>259.1123481012747</v>
       </c>
       <c r="I35" t="n">
-        <v>6.081513486880141</v>
+        <v>6.081513486880219</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>73.69234550213002</v>
+        <v>73.69234550213011</v>
       </c>
       <c r="T35" t="n">
         <v>168.4225538535744</v>
       </c>
       <c r="U35" t="n">
-        <v>215.4997556728562</v>
+        <v>215.4997556728563</v>
       </c>
       <c r="V35" t="n">
-        <v>292.2568421840891</v>
+        <v>292.2568421840892</v>
       </c>
       <c r="W35" t="n">
-        <v>313.7455524313672</v>
+        <v>313.7455524313673</v>
       </c>
       <c r="X35" t="n">
         <v>334.2356843924233</v>
       </c>
       <c r="Y35" t="n">
-        <v>350.7425223700078</v>
+        <v>350.7425223700079</v>
       </c>
     </row>
     <row r="36">
@@ -3363,7 +3363,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,10 +3390,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S36" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T36" t="n">
         <v>190.7165703189231</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>144.3365638958915</v>
+        <v>144.3365638958916</v>
       </c>
       <c r="C37" t="n">
         <v>131.7514048125821</v>
       </c>
       <c r="D37" t="n">
-        <v>60.29851832539446</v>
+        <v>113.1200567321666</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>7.369432608407973</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>109.9256317368855</v>
       </c>
       <c r="G37" t="n">
-        <v>130.5303919729824</v>
+        <v>130.5303919729825</v>
       </c>
       <c r="H37" t="n">
-        <v>109.259598628275</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>60.85700412379231</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>53.43673638400153</v>
+        <v>53.43673638400161</v>
       </c>
       <c r="S37" t="n">
-        <v>154.2736090453961</v>
+        <v>154.2736090453962</v>
       </c>
       <c r="T37" t="n">
-        <v>184.0535329901234</v>
+        <v>184.0535329901235</v>
       </c>
       <c r="U37" t="n">
-        <v>250.7164219195671</v>
+        <v>250.7164219195672</v>
       </c>
       <c r="V37" t="n">
-        <v>216.6422270377822</v>
+        <v>216.6422270377823</v>
       </c>
       <c r="W37" t="n">
-        <v>251.0275820505452</v>
+        <v>251.0275820505453</v>
       </c>
       <c r="X37" t="n">
         <v>190.2142391029914</v>
       </c>
       <c r="Y37" t="n">
-        <v>183.089237066049</v>
+        <v>183.0892370660491</v>
       </c>
     </row>
     <row r="38">
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>347.2384253774348</v>
+        <v>347.2384253774347</v>
       </c>
       <c r="C38" t="n">
-        <v>329.7774754849618</v>
+        <v>329.7774754849617</v>
       </c>
       <c r="D38" t="n">
-        <v>319.1876253346372</v>
+        <v>319.1876253346371</v>
       </c>
       <c r="E38" t="n">
-        <v>346.434953786216</v>
+        <v>346.4349537862159</v>
       </c>
       <c r="F38" t="n">
-        <v>371.3806294556668</v>
+        <v>371.3806294556656</v>
       </c>
       <c r="G38" t="n">
-        <v>375.4263093674077</v>
+        <v>375.4263093674076</v>
       </c>
       <c r="H38" t="n">
-        <v>259.1123481012747</v>
+        <v>259.1123481012748</v>
       </c>
       <c r="I38" t="n">
-        <v>6.081513486880169</v>
+        <v>6.081513486880112</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>73.69234550213005</v>
+        <v>73.69234550213002</v>
       </c>
       <c r="T38" t="n">
-        <v>168.4225538535744</v>
+        <v>168.4225538535743</v>
       </c>
       <c r="U38" t="n">
-        <v>215.4997556728562</v>
+        <v>215.4997556728561</v>
       </c>
       <c r="V38" t="n">
         <v>292.2568421840891</v>
@@ -3566,10 +3566,10 @@
         <v>313.7455524313672</v>
       </c>
       <c r="X38" t="n">
-        <v>334.2356843924233</v>
+        <v>334.2356843924232</v>
       </c>
       <c r="Y38" t="n">
-        <v>350.7425223700078</v>
+        <v>350.7425223700077</v>
       </c>
     </row>
     <row r="39">
@@ -3661,22 +3661,22 @@
         <v>144.3365638958915</v>
       </c>
       <c r="C40" t="n">
-        <v>131.7514048125821</v>
+        <v>131.751404812582</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>113.1200567321665</v>
       </c>
       <c r="E40" t="n">
-        <v>110.9385463605234</v>
+        <v>110.9385463605233</v>
       </c>
       <c r="F40" t="n">
-        <v>109.9256317368855</v>
+        <v>109.9256317368854</v>
       </c>
       <c r="G40" t="n">
-        <v>30.82173632476078</v>
+        <v>130.5303919729824</v>
       </c>
       <c r="H40" t="n">
-        <v>109.259598628275</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>53.43673638400155</v>
+        <v>53.43673638400149</v>
       </c>
       <c r="S40" t="n">
         <v>154.2736090453961</v>
@@ -3715,7 +3715,7 @@
         <v>184.0535329901234</v>
       </c>
       <c r="U40" t="n">
-        <v>250.7164219195671</v>
+        <v>147.1473081674541</v>
       </c>
       <c r="V40" t="n">
         <v>216.6422270377822</v>
@@ -3724,7 +3724,7 @@
         <v>251.0275820505452</v>
       </c>
       <c r="X40" t="n">
-        <v>190.2142391029914</v>
+        <v>190.2142391029913</v>
       </c>
       <c r="Y40" t="n">
         <v>183.089237066049</v>
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>347.2384253774348</v>
+        <v>347.2384253774347</v>
       </c>
       <c r="C41" t="n">
-        <v>329.7774754849618</v>
+        <v>329.7774754849617</v>
       </c>
       <c r="D41" t="n">
-        <v>319.1876253346372</v>
+        <v>319.1876253346371</v>
       </c>
       <c r="E41" t="n">
-        <v>346.434953786216</v>
+        <v>346.4349537862159</v>
       </c>
       <c r="F41" t="n">
-        <v>371.3806294556657</v>
+        <v>371.3806294556656</v>
       </c>
       <c r="G41" t="n">
-        <v>375.4263093674077</v>
+        <v>375.4263093674076</v>
       </c>
       <c r="H41" t="n">
-        <v>259.1123481012747</v>
+        <v>259.1123481012746</v>
       </c>
       <c r="I41" t="n">
-        <v>6.081513486880169</v>
+        <v>6.081513486880127</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>73.69234550213005</v>
+        <v>73.69234550213002</v>
       </c>
       <c r="T41" t="n">
-        <v>168.4225538535744</v>
+        <v>168.4225538535743</v>
       </c>
       <c r="U41" t="n">
         <v>215.4997556728562</v>
       </c>
       <c r="V41" t="n">
-        <v>292.25684218409</v>
+        <v>292.2568421840891</v>
       </c>
       <c r="W41" t="n">
         <v>313.7455524313672</v>
       </c>
       <c r="X41" t="n">
-        <v>334.2356843924233</v>
+        <v>334.2356843924232</v>
       </c>
       <c r="Y41" t="n">
-        <v>350.7425223700078</v>
+        <v>350.7425223700077</v>
       </c>
     </row>
     <row r="42">
@@ -3898,25 +3898,25 @@
         <v>144.3365638958915</v>
       </c>
       <c r="C43" t="n">
-        <v>131.7514048125821</v>
+        <v>131.751404812582</v>
       </c>
       <c r="D43" t="n">
-        <v>113.1200567321666</v>
+        <v>113.1200567321665</v>
       </c>
       <c r="E43" t="n">
-        <v>110.9385463605234</v>
+        <v>110.9385463605233</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>27.62731132948056</v>
       </c>
       <c r="G43" t="n">
-        <v>130.5303919729824</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>109.259598628275</v>
       </c>
       <c r="I43" t="n">
-        <v>60.85700412379231</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>53.43673638400155</v>
+        <v>53.43673638400151</v>
       </c>
       <c r="S43" t="n">
         <v>154.2736090453961</v>
@@ -3952,16 +3952,16 @@
         <v>184.0535329901234</v>
       </c>
       <c r="U43" t="n">
-        <v>250.7164219195671</v>
+        <v>250.716421919567</v>
       </c>
       <c r="V43" t="n">
         <v>216.6422270377822</v>
       </c>
       <c r="W43" t="n">
-        <v>87.26749728324955</v>
+        <v>251.0275820505452</v>
       </c>
       <c r="X43" t="n">
-        <v>190.2142391029914</v>
+        <v>190.2142391029913</v>
       </c>
       <c r="Y43" t="n">
         <v>183.089237066049</v>
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>347.2384253774348</v>
+        <v>347.2384253774347</v>
       </c>
       <c r="C44" t="n">
-        <v>329.7774754849618</v>
+        <v>329.7774754849617</v>
       </c>
       <c r="D44" t="n">
-        <v>319.1876253346372</v>
+        <v>319.1876253346371</v>
       </c>
       <c r="E44" t="n">
-        <v>346.434953786216</v>
+        <v>346.4349537862159</v>
       </c>
       <c r="F44" t="n">
-        <v>371.3806294556657</v>
+        <v>371.3806294556656</v>
       </c>
       <c r="G44" t="n">
-        <v>375.4263093674077</v>
+        <v>375.4263093674076</v>
       </c>
       <c r="H44" t="n">
-        <v>259.1123481012747</v>
+        <v>259.1123481012748</v>
       </c>
       <c r="I44" t="n">
-        <v>6.081513486880169</v>
+        <v>6.081513486880112</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>73.69234550213005</v>
+        <v>73.69234550213002</v>
       </c>
       <c r="T44" t="n">
-        <v>168.4225538535744</v>
+        <v>168.4225538535743</v>
       </c>
       <c r="U44" t="n">
-        <v>215.4997556728562</v>
+        <v>215.4997556728561</v>
       </c>
       <c r="V44" t="n">
-        <v>292.25684218409</v>
+        <v>292.2568421840891</v>
       </c>
       <c r="W44" t="n">
         <v>313.7455524313672</v>
       </c>
       <c r="X44" t="n">
-        <v>334.2356843924233</v>
+        <v>334.2356843924232</v>
       </c>
       <c r="Y44" t="n">
-        <v>350.7425223700078</v>
+        <v>350.7425223700077</v>
       </c>
     </row>
     <row r="45">
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4132,19 +4132,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>144.3365638958915</v>
       </c>
       <c r="C46" t="n">
-        <v>131.7514048125821</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>113.1200567321666</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>91.51502548911947</v>
+        <v>110.9385463605233</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>109.9256317368854</v>
       </c>
       <c r="G46" t="n">
         <v>130.5303919729824</v>
@@ -4153,7 +4153,7 @@
         <v>109.259598628275</v>
       </c>
       <c r="I46" t="n">
-        <v>60.85700412379231</v>
+        <v>60.85700412379227</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>53.43673638400155</v>
+        <v>53.43673638400149</v>
       </c>
       <c r="S46" t="n">
         <v>154.2736090453961</v>
@@ -4189,7 +4189,7 @@
         <v>184.0535329901234</v>
       </c>
       <c r="U46" t="n">
-        <v>250.7164219195671</v>
+        <v>250.716421919567</v>
       </c>
       <c r="V46" t="n">
         <v>216.6422270377822</v>
@@ -4198,10 +4198,10 @@
         <v>251.0275820505452</v>
       </c>
       <c r="X46" t="n">
-        <v>190.2142391029914</v>
+        <v>190.2142391029913</v>
       </c>
       <c r="Y46" t="n">
-        <v>183.089237066049</v>
+        <v>154.274982106617</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1173.75221715111</v>
+        <v>1005.420956617972</v>
       </c>
       <c r="C2" t="n">
-        <v>804.7897002106986</v>
+        <v>636.4584396775599</v>
       </c>
       <c r="D2" t="n">
-        <v>446.5240016039481</v>
+        <v>636.4584396775599</v>
       </c>
       <c r="E2" t="n">
-        <v>446.5240016039481</v>
+        <v>636.4584396775599</v>
       </c>
       <c r="F2" t="n">
-        <v>439.5785008547446</v>
+        <v>225.4725348879524</v>
       </c>
       <c r="G2" t="n">
-        <v>48.25775485501624</v>
+        <v>211.3007166942731</v>
       </c>
       <c r="H2" t="n">
-        <v>48.25775485501624</v>
+        <v>211.3007166942731</v>
       </c>
       <c r="I2" t="n">
-        <v>48.25775485501624</v>
+        <v>48.25775485501653</v>
       </c>
       <c r="J2" t="n">
-        <v>143.361340524478</v>
+        <v>143.3613405244791</v>
       </c>
       <c r="K2" t="n">
-        <v>406.6417666293494</v>
+        <v>406.6417666293523</v>
       </c>
       <c r="L2" t="n">
-        <v>785.5410436024622</v>
+        <v>785.5410436024672</v>
       </c>
       <c r="M2" t="n">
-        <v>1223.746040782768</v>
+        <v>1223.746040782775</v>
       </c>
       <c r="N2" t="n">
-        <v>1654.409655400859</v>
+        <v>1654.409655400868</v>
       </c>
       <c r="O2" t="n">
-        <v>2015.885456671741</v>
+        <v>2015.885456671753</v>
       </c>
       <c r="P2" t="n">
-        <v>2286.722307110673</v>
+        <v>2286.722307110687</v>
       </c>
       <c r="Q2" t="n">
-        <v>2412.887742750812</v>
+        <v>2412.887742750826</v>
       </c>
       <c r="R2" t="n">
-        <v>2412.887742750812</v>
+        <v>2342.254609045103</v>
       </c>
       <c r="S2" t="n">
-        <v>2231.049518025875</v>
+        <v>2160.416384320166</v>
       </c>
       <c r="T2" t="n">
-        <v>2231.049518025875</v>
+        <v>2160.416384320166</v>
       </c>
       <c r="U2" t="n">
-        <v>2231.049518025875</v>
+        <v>2100.088934198434</v>
       </c>
       <c r="V2" t="n">
-        <v>1899.986630682304</v>
+        <v>1769.026046854863</v>
       </c>
       <c r="W2" t="n">
-        <v>1547.21797541219</v>
+        <v>1769.026046854863</v>
       </c>
       <c r="X2" t="n">
-        <v>1173.75221715111</v>
+        <v>1395.560288593783</v>
       </c>
       <c r="Y2" t="n">
-        <v>1173.75221715111</v>
+        <v>1005.420956617972</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>850.7624785076522</v>
+        <v>988.8055048397986</v>
       </c>
       <c r="C3" t="n">
-        <v>676.3094492265252</v>
+        <v>814.3524755586716</v>
       </c>
       <c r="D3" t="n">
-        <v>527.3750395652739</v>
+        <v>665.4180658974203</v>
       </c>
       <c r="E3" t="n">
-        <v>368.1375845598185</v>
+        <v>506.1806108919648</v>
       </c>
       <c r="F3" t="n">
-        <v>221.6030265867035</v>
+        <v>359.6460529188497</v>
       </c>
       <c r="G3" t="n">
         <v>221.6030265867035</v>
@@ -4404,55 +4404,55 @@
         <v>114.8765821596108</v>
       </c>
       <c r="I3" t="n">
-        <v>48.25775485501624</v>
+        <v>48.25775485501653</v>
       </c>
       <c r="J3" t="n">
-        <v>48.25775485501624</v>
+        <v>70.84789150583461</v>
       </c>
       <c r="K3" t="n">
-        <v>282.4696009334096</v>
+        <v>305.059737584229</v>
       </c>
       <c r="L3" t="n">
-        <v>525.9465153519682</v>
+        <v>681.3908644604733</v>
       </c>
       <c r="M3" t="n">
-        <v>1017.086411664339</v>
+        <v>1172.530760772845</v>
       </c>
       <c r="N3" t="n">
-        <v>1536.932332987182</v>
+        <v>1692.376682095691</v>
       </c>
       <c r="O3" t="n">
-        <v>1946.074112602206</v>
+        <v>2101.518461710716</v>
       </c>
       <c r="P3" t="n">
-        <v>2257.443393642316</v>
+        <v>2412.887742750826</v>
       </c>
       <c r="Q3" t="n">
-        <v>2412.887742750812</v>
+        <v>2412.887742750826</v>
       </c>
       <c r="R3" t="n">
-        <v>2354.422089841564</v>
+        <v>2354.422089841579</v>
       </c>
       <c r="S3" t="n">
-        <v>2193.780311634269</v>
+        <v>2193.780311634284</v>
       </c>
       <c r="T3" t="n">
-        <v>1994.36602997257</v>
+        <v>1994.366029972585</v>
       </c>
       <c r="U3" t="n">
-        <v>1766.187661648778</v>
+        <v>1766.187661648793</v>
       </c>
       <c r="V3" t="n">
-        <v>1531.035553417035</v>
+        <v>1658.654660538487</v>
       </c>
       <c r="W3" t="n">
-        <v>1434.589614498207</v>
+        <v>1404.417303810285</v>
       </c>
       <c r="X3" t="n">
-        <v>1226.738114292674</v>
+        <v>1196.565803604753</v>
       </c>
       <c r="Y3" t="n">
-        <v>1018.97781552772</v>
+        <v>988.8055048397986</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>631.0407786978471</v>
+        <v>522.998019456779</v>
       </c>
       <c r="C4" t="n">
-        <v>631.0407786978471</v>
+        <v>522.998019456779</v>
       </c>
       <c r="D4" t="n">
-        <v>631.0407786978471</v>
+        <v>522.998019456779</v>
       </c>
       <c r="E4" t="n">
-        <v>483.127685115454</v>
+        <v>522.998019456779</v>
       </c>
       <c r="F4" t="n">
-        <v>483.127685115454</v>
+        <v>376.1080719588687</v>
       </c>
       <c r="G4" t="n">
-        <v>400.2113848025539</v>
+        <v>206.9968416694267</v>
       </c>
       <c r="H4" t="n">
-        <v>241.4722979881436</v>
+        <v>48.25775485501653</v>
       </c>
       <c r="I4" t="n">
-        <v>101.7923822515375</v>
+        <v>48.25775485501653</v>
       </c>
       <c r="J4" t="n">
-        <v>48.25775485501624</v>
+        <v>48.25775485501653</v>
       </c>
       <c r="K4" t="n">
-        <v>91.87143294461004</v>
+        <v>91.87143294461094</v>
       </c>
       <c r="L4" t="n">
-        <v>203.2083598384342</v>
+        <v>203.2083598384359</v>
       </c>
       <c r="M4" t="n">
-        <v>330.9866617534284</v>
+        <v>330.986661753431</v>
       </c>
       <c r="N4" t="n">
-        <v>461.1612976692847</v>
+        <v>461.1612976692882</v>
       </c>
       <c r="O4" t="n">
-        <v>565.3823477984519</v>
+        <v>565.3823477984561</v>
       </c>
       <c r="P4" t="n">
-        <v>631.0407786978471</v>
+        <v>631.0407786978519</v>
       </c>
       <c r="Q4" t="n">
-        <v>631.0407786978471</v>
+        <v>631.0407786978519</v>
       </c>
       <c r="R4" t="n">
-        <v>631.0407786978471</v>
+        <v>631.0407786978519</v>
       </c>
       <c r="S4" t="n">
-        <v>631.0407786978471</v>
+        <v>631.0407786978519</v>
       </c>
       <c r="T4" t="n">
-        <v>631.0407786978471</v>
+        <v>631.0407786978519</v>
       </c>
       <c r="U4" t="n">
-        <v>631.0407786978471</v>
+        <v>631.0407786978519</v>
       </c>
       <c r="V4" t="n">
-        <v>631.0407786978471</v>
+        <v>631.0407786978519</v>
       </c>
       <c r="W4" t="n">
-        <v>631.0407786978471</v>
+        <v>631.0407786978519</v>
       </c>
       <c r="X4" t="n">
-        <v>631.0407786978471</v>
+        <v>631.0407786978519</v>
       </c>
       <c r="Y4" t="n">
-        <v>631.0407786978471</v>
+        <v>522.998019456779</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1335.58524627281</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="C5" t="n">
-        <v>966.622729332398</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="D5" t="n">
-        <v>966.622729332398</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E5" t="n">
-        <v>580.8344767341537</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>573.8889759849502</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
         <v>534.603677789272</v>
@@ -4565,10 +4565,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224079</v>
@@ -4598,19 +4598,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2443.387305656314</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2112.324418312743</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>2112.324418312743</v>
+        <v>2512.946733515829</v>
       </c>
       <c r="X5" t="n">
-        <v>2112.324418312743</v>
+        <v>2139.480975254749</v>
       </c>
       <c r="Y5" t="n">
-        <v>1722.185086336931</v>
+        <v>1749.341643278937</v>
       </c>
     </row>
     <row r="6">
@@ -4644,10 +4644,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
         <v>670.8219208598708</v>
@@ -4680,7 +4680,7 @@
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>546.4805193761945</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>377.5443364482876</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>227.4276970359519</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4759,16 +4759,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1349.56916835588</v>
+        <v>1722.185086336931</v>
       </c>
       <c r="C8" t="n">
-        <v>1349.56916835588</v>
+        <v>1722.185086336931</v>
       </c>
       <c r="D8" t="n">
-        <v>991.3034697491294</v>
+        <v>1722.185086336931</v>
       </c>
       <c r="E8" t="n">
-        <v>605.5152171508851</v>
+        <v>1336.396833738687</v>
       </c>
       <c r="F8" t="n">
-        <v>194.5293123612775</v>
+        <v>925.4109289490796</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V8" t="n">
-        <v>2465.942913862886</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W8" t="n">
-        <v>2113.174258592771</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="X8" t="n">
-        <v>1739.708500331692</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="Y8" t="n">
-        <v>1349.56916835588</v>
+        <v>1722.185086336931</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4884,7 +4884,7 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L9" t="n">
         <v>670.8219208598708</v>
@@ -4920,10 +4920,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4939,16 +4939,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="C10" t="n">
-        <v>667.8624625746712</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D10" t="n">
-        <v>517.7458231623355</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E10" t="n">
-        <v>369.8327295799424</v>
+        <v>261.1630682837985</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>114.2731207858881</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -5018,19 +5018,19 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E11" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F11" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H11" t="n">
         <v>137.5579332089257</v>
@@ -5042,49 +5042,49 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K11" t="n">
-        <v>618.2595390972663</v>
+        <v>818.2062848686787</v>
       </c>
       <c r="L11" t="n">
-        <v>1482.778354750621</v>
+        <v>1682.725100522033</v>
       </c>
       <c r="M11" t="n">
-        <v>2016.310259422546</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N11" t="n">
-        <v>2602.177459903277</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O11" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P11" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="12">
@@ -5109,7 +5109,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H12" t="n">
         <v>114.5683260468565</v>
@@ -5118,28 +5118,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R12" t="n">
         <v>2593.958107142068</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>558.6274977408366</v>
+        <v>412.4103109586945</v>
       </c>
       <c r="C13" t="n">
-        <v>389.6913148129297</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="D13" t="n">
-        <v>389.6913148129297</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E13" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F13" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G13" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H13" t="n">
         <v>95.56103444839442</v>
@@ -5197,19 +5197,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J13" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L13" t="n">
-        <v>661.2306482927025</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M13" t="n">
         <v>1005.387693892251</v>
       </c>
       <c r="N13" t="n">
-        <v>1346.796070598115</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
         <v>1646.125669518529</v>
@@ -5221,28 +5221,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S13" t="n">
-        <v>1764.657581931529</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="T13" t="n">
-        <v>1764.657581931529</v>
+        <v>1644.746393431757</v>
       </c>
       <c r="U13" t="n">
-        <v>1475.554715057173</v>
+        <v>1586.942564073329</v>
       </c>
       <c r="V13" t="n">
-        <v>1475.554715057173</v>
+        <v>1332.258075867442</v>
       </c>
       <c r="W13" t="n">
-        <v>1186.137545020212</v>
+        <v>1042.840905830482</v>
       </c>
       <c r="X13" t="n">
-        <v>958.1479941221946</v>
+        <v>814.8513549324643</v>
       </c>
       <c r="Y13" t="n">
-        <v>740.2759625710763</v>
+        <v>594.0587757889342</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H14" t="n">
         <v>137.5579332089257</v>
@@ -5279,19 +5279,19 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>939.1634975427194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L14" t="n">
-        <v>1803.682313196074</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M14" t="n">
-        <v>2337.214217867999</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N14" t="n">
-        <v>2883.993034926781</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O14" t="n">
-        <v>3763.957685256236</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P14" t="n">
         <v>4405.689038432984</v>
@@ -5303,25 +5303,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="15">
@@ -5331,37 +5331,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C15" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K15" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5373,22 +5373,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T15" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V15" t="n">
         <v>1808.657265216076</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>629.8934034843137</v>
+        <v>968.185413465129</v>
       </c>
       <c r="C16" t="n">
-        <v>629.8934034843137</v>
+        <v>799.2492305372222</v>
       </c>
       <c r="D16" t="n">
-        <v>629.8934034843137</v>
+        <v>649.1325911248864</v>
       </c>
       <c r="E16" t="n">
-        <v>506.8067350374723</v>
+        <v>649.1325911248864</v>
       </c>
       <c r="F16" t="n">
-        <v>506.8067350374723</v>
+        <v>502.242643626976</v>
       </c>
       <c r="G16" t="n">
         <v>339.1038984121913</v>
@@ -5437,10 +5437,10 @@
         <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442061</v>
       </c>
       <c r="L16" t="n">
-        <v>661.2306482927025</v>
+        <v>661.2306482927022</v>
       </c>
       <c r="M16" t="n">
         <v>1005.387693892251</v>
@@ -5455,31 +5455,31 @@
         <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S16" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T16" t="n">
-        <v>1644.746393431757</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="U16" t="n">
-        <v>1355.643526557401</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V16" t="n">
-        <v>1100.959038351514</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="W16" t="n">
-        <v>811.5418683145534</v>
+        <v>1377.823429193386</v>
       </c>
       <c r="X16" t="n">
-        <v>811.5418683145534</v>
+        <v>1149.833878295369</v>
       </c>
       <c r="Y16" t="n">
-        <v>811.5418683145534</v>
+        <v>1149.833878295369</v>
       </c>
     </row>
     <row r="17">
@@ -5501,49 +5501,49 @@
         <v>1261.199888544771</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551634</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839444</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277722</v>
+        <v>284.4401654074199</v>
       </c>
       <c r="K17" t="n">
-        <v>1106.56914656307</v>
+        <v>818.2062848686785</v>
       </c>
       <c r="L17" t="n">
-        <v>1557.603359811478</v>
+        <v>1682.725100522033</v>
       </c>
       <c r="M17" t="n">
-        <v>2091.135264483401</v>
+        <v>2216.257005193958</v>
       </c>
       <c r="N17" t="n">
-        <v>2637.914081542182</v>
+        <v>3196.009277420605</v>
       </c>
       <c r="O17" t="n">
-        <v>3517.878731871635</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P17" t="n">
-        <v>4231.23381931858</v>
+        <v>4470.748294107238</v>
       </c>
       <c r="Q17" t="n">
-        <v>4689.712021827567</v>
+        <v>4719.03465586292</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419722</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U17" t="n">
         <v>4208.252829604875</v>
@@ -5568,52 +5568,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E18" t="n">
-        <v>487.967878549486</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F18" t="n">
-        <v>341.433320576371</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G18" t="n">
         <v>205.0702204089891</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468566</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839444</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390113</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193577</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.200663232022</v>
+        <v>794.2006632320241</v>
       </c>
       <c r="M18" t="n">
-        <v>1241.476988454337</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.00003200879</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.961311426844</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902946</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549545</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
         <v>2593.958107142068</v>
@@ -5634,10 +5634,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>582.3166934139183</v>
+        <v>965.3449658766826</v>
       </c>
       <c r="C19" t="n">
-        <v>413.3805104860114</v>
+        <v>796.4087829487758</v>
       </c>
       <c r="D19" t="n">
-        <v>263.2638710736755</v>
+        <v>796.4087829487758</v>
       </c>
       <c r="E19" t="n">
-        <v>263.2638710736755</v>
+        <v>648.4956893663826</v>
       </c>
       <c r="F19" t="n">
-        <v>263.2638710736755</v>
+        <v>501.6057418684723</v>
       </c>
       <c r="G19" t="n">
-        <v>95.56103444839444</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H19" t="n">
-        <v>95.56103444839444</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I19" t="n">
         <v>95.56103444839444</v>
       </c>
       <c r="J19" t="n">
-        <v>140.6836668953297</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442056</v>
+        <v>344.6708498442062</v>
       </c>
       <c r="L19" t="n">
-        <v>661.2306482927011</v>
+        <v>661.2306482927023</v>
       </c>
       <c r="M19" t="n">
-        <v>1005.387693892249</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N19" t="n">
-        <v>1346.796070598114</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.125669518527</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P19" t="n">
-        <v>1878.733169952185</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.3434661047</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.3434661047</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S19" t="n">
-        <v>1764.657581931526</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T19" t="n">
-        <v>1542.890966501052</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="U19" t="n">
-        <v>1502.164458322666</v>
+        <v>1475.554715057173</v>
       </c>
       <c r="V19" t="n">
-        <v>1502.164458322666</v>
+        <v>1475.554715057173</v>
       </c>
       <c r="W19" t="n">
-        <v>1212.747288285706</v>
+        <v>1186.137545020213</v>
       </c>
       <c r="X19" t="n">
-        <v>984.7577373876882</v>
+        <v>1186.137545020213</v>
       </c>
       <c r="Y19" t="n">
-        <v>763.965158244158</v>
+        <v>965.3449658766826</v>
       </c>
     </row>
     <row r="20">
@@ -5726,52 +5726,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690177</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749766</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551633</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839444</v>
       </c>
       <c r="J20" t="n">
-        <v>451.845814427772</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K20" t="n">
-        <v>1106.56914656307</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L20" t="n">
-        <v>1586.925993846832</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M20" t="n">
-        <v>2120.457898518755</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N20" t="n">
-        <v>2667.236715577535</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O20" t="n">
-        <v>3547.201365906988</v>
+        <v>3517.878731871643</v>
       </c>
       <c r="P20" t="n">
-        <v>4260.556453353933</v>
+        <v>4231.233819318589</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.03465586292</v>
+        <v>4689.712021827577</v>
       </c>
       <c r="R20" t="n">
         <v>4778.051722419722</v>
@@ -5792,10 +5792,10 @@
         <v>3524.421286991191</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.955528730111</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754299</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="21">
@@ -5805,52 +5805,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.59277249732</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C21" t="n">
-        <v>796.139743216193</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494862</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763711</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089892</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468567</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839444</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390112</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193575</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320217</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M21" t="n">
-        <v>1241.476988454336</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008789</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.961311426843</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
         <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
         <v>2593.958107142068</v>
@@ -5868,7 +5868,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W21" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
         <v>1346.568408282342</v>
@@ -5908,49 +5908,49 @@
         <v>95.56103444839444</v>
       </c>
       <c r="J22" t="n">
-        <v>140.6836668953297</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442053</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927008</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M22" t="n">
-        <v>1005.387693892249</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N22" t="n">
-        <v>1346.796070598113</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.125669518526</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P22" t="n">
-        <v>1878.733169952185</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104699</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104699</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S22" t="n">
-        <v>1764.657581931526</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T22" t="n">
-        <v>1542.890966501051</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U22" t="n">
-        <v>1253.788099626695</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V22" t="n">
-        <v>999.1036114208081</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W22" t="n">
-        <v>709.6864413838475</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X22" t="n">
-        <v>481.6968904858302</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y22" t="n">
         <v>277.2094992786342</v>
@@ -5975,49 +5975,49 @@
         <v>1261.199888544771</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551634</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H23" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074199</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>618.2595390972664</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L23" t="n">
-        <v>1482.778354750621</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M23" t="n">
-        <v>2461.32865758045</v>
+        <v>2047.844055175504</v>
       </c>
       <c r="N23" t="n">
-        <v>3441.080929807096</v>
+        <v>3027.596327402151</v>
       </c>
       <c r="O23" t="n">
-        <v>3944.053400686433</v>
+        <v>3907.560977731605</v>
       </c>
       <c r="P23" t="n">
-        <v>4338.827767043611</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188667</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
         <v>4208.252829604875</v>
@@ -6042,19 +6042,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G24" t="n">
         <v>205.0702204089889</v>
@@ -6063,13 +6063,13 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L24" t="n">
         <v>794.2006632320242</v>
@@ -6084,22 +6084,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q24" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T24" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6108,10 +6108,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="25">
@@ -6121,34 +6121,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>708.7441371531723</v>
+        <v>653.7478932037367</v>
       </c>
       <c r="C25" t="n">
-        <v>539.8079542252655</v>
+        <v>653.7478932037367</v>
       </c>
       <c r="D25" t="n">
-        <v>389.6913148129298</v>
+        <v>503.6312537914009</v>
       </c>
       <c r="E25" t="n">
-        <v>241.7782212305366</v>
+        <v>503.6312537914009</v>
       </c>
       <c r="F25" t="n">
-        <v>241.7782212305366</v>
+        <v>503.6312537914009</v>
       </c>
       <c r="G25" t="n">
-        <v>241.7782212305366</v>
+        <v>335.9284171661199</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839444</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L25" t="n">
         <v>661.2306482927024</v>
@@ -6166,31 +6166,31 @@
         <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S25" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T25" t="n">
-        <v>1956.343466104704</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U25" t="n">
-        <v>1667.240599230348</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V25" t="n">
-        <v>1412.556111024461</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="W25" t="n">
-        <v>1123.1389409875</v>
+        <v>874.5404723472668</v>
       </c>
       <c r="X25" t="n">
-        <v>929.5367162967025</v>
+        <v>874.5404723472668</v>
       </c>
       <c r="Y25" t="n">
-        <v>708.7441371531723</v>
+        <v>653.7478932037367</v>
       </c>
     </row>
     <row r="26">
@@ -6218,34 +6218,34 @@
         <v>435.1415336001592</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>416.1091927888621</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K26" t="n">
-        <v>1070.832524924162</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L26" t="n">
-        <v>1521.86673817257</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M26" t="n">
-        <v>2055.398642844495</v>
+        <v>2593.249184644075</v>
       </c>
       <c r="N26" t="n">
-        <v>2602.177459903277</v>
+        <v>3573.001456870722</v>
       </c>
       <c r="O26" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P26" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R26" t="n">
         <v>4778.051722419721</v>
@@ -6358,13 +6358,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839439</v>
       </c>
       <c r="C28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839439</v>
       </c>
       <c r="D28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839439</v>
       </c>
       <c r="E28" t="n">
         <v>95.56103444839442</v>
@@ -6382,7 +6382,7 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
-        <v>140.6836668953301</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
         <v>344.6708498442063</v>
@@ -6397,7 +6397,7 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P28" t="n">
         <v>1878.733169952189</v>
@@ -6409,22 +6409,22 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1764.65758193153</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T28" t="n">
-        <v>1542.890966501056</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U28" t="n">
-        <v>1253.788099626699</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V28" t="n">
-        <v>999.1036114208126</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W28" t="n">
-        <v>709.6864413838521</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X28" t="n">
-        <v>481.6968904858347</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y28" t="n">
         <v>277.2094992786341</v>
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
@@ -6461,25 +6461,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L29" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M29" t="n">
-        <v>2120.457898518748</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N29" t="n">
-        <v>2667.236715577531</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O29" t="n">
-        <v>3547.201365906985</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P29" t="n">
-        <v>4260.556453353931</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q29" t="n">
         <v>4719.034655862919</v>
@@ -6488,25 +6488,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="30">
@@ -6516,13 +6516,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E30" t="n">
         <v>487.9678785494859</v>
@@ -6531,7 +6531,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H30" t="n">
         <v>114.5683260468565</v>
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>95.56103444839437</v>
+        <v>521.815041086069</v>
       </c>
       <c r="C31" t="n">
-        <v>95.56103444839437</v>
+        <v>521.815041086069</v>
       </c>
       <c r="D31" t="n">
-        <v>95.56103444839437</v>
+        <v>371.6984016737333</v>
       </c>
       <c r="E31" t="n">
-        <v>95.56103444839437</v>
+        <v>223.7853080913401</v>
       </c>
       <c r="F31" t="n">
         <v>95.56103444839442</v>
@@ -6625,7 +6625,7 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L31" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927022</v>
       </c>
       <c r="M31" t="n">
         <v>1005.387693892251</v>
@@ -6649,22 +6649,22 @@
         <v>1764.65758193153</v>
       </c>
       <c r="T31" t="n">
-        <v>1542.890966501056</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="U31" t="n">
-        <v>1270.093287563029</v>
+        <v>1475.554715057173</v>
       </c>
       <c r="V31" t="n">
-        <v>1015.408799357142</v>
+        <v>1220.870226851287</v>
       </c>
       <c r="W31" t="n">
-        <v>725.9916293201816</v>
+        <v>931.453056814326</v>
       </c>
       <c r="X31" t="n">
-        <v>498.0020784221642</v>
+        <v>703.4635059163087</v>
       </c>
       <c r="Y31" t="n">
-        <v>277.2094992786341</v>
+        <v>703.4635059163087</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6674,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
@@ -6701,25 +6701,25 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>939.1634975427194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L32" t="n">
-        <v>1803.682313196074</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M32" t="n">
-        <v>2337.214217867999</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N32" t="n">
-        <v>3316.966490094645</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O32" t="n">
-        <v>4075.973927750058</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107237</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R32" t="n">
         <v>4778.051722419721</v>
@@ -6731,19 +6731,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="33">
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>851.0327524903256</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C34" t="n">
-        <v>682.0965695624187</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D34" t="n">
-        <v>682.0965695624187</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E34" t="n">
-        <v>653.6966825353827</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F34" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G34" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H34" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I34" t="n">
         <v>95.56103444839442</v>
@@ -6859,13 +6859,13 @@
         <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L34" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M34" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N34" t="n">
         <v>1346.796070598116</v>
@@ -6889,19 +6889,19 @@
         <v>1542.890966501056</v>
       </c>
       <c r="U34" t="n">
-        <v>1542.890966501056</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V34" t="n">
-        <v>1542.890966501056</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W34" t="n">
-        <v>1253.473796464095</v>
+        <v>709.686441383852</v>
       </c>
       <c r="X34" t="n">
-        <v>1253.473796464095</v>
+        <v>481.6968904858346</v>
       </c>
       <c r="Y34" t="n">
-        <v>1032.681217320565</v>
+        <v>260.9043113423045</v>
       </c>
     </row>
     <row r="35">
@@ -6923,37 +6923,37 @@
         <v>1106.808364398085</v>
       </c>
       <c r="F35" t="n">
-        <v>731.6764154529685</v>
+        <v>731.6764154529681</v>
       </c>
       <c r="G35" t="n">
-        <v>352.4579211424557</v>
+        <v>352.4579211424552</v>
       </c>
       <c r="H35" t="n">
-        <v>90.72827659571334</v>
+        <v>90.72827659571341</v>
       </c>
       <c r="I35" t="n">
         <v>84.58533367967279</v>
       </c>
       <c r="J35" t="n">
-        <v>273.4644646386984</v>
+        <v>273.4644646386982</v>
       </c>
       <c r="K35" t="n">
-        <v>928.187796773998</v>
+        <v>899.0396659381977</v>
       </c>
       <c r="L35" t="n">
-        <v>1792.706612427353</v>
+        <v>1350.073879186607</v>
       </c>
       <c r="M35" t="n">
-        <v>2326.238517099277</v>
+        <v>1883.605783858531</v>
       </c>
       <c r="N35" t="n">
-        <v>2873.01733415806</v>
+        <v>2430.384600917313</v>
       </c>
       <c r="O35" t="n">
-        <v>3375.989805037397</v>
+        <v>2933.35707179665</v>
       </c>
       <c r="P35" t="n">
-        <v>3856.903999996902</v>
+        <v>3646.712159243596</v>
       </c>
       <c r="Q35" t="n">
         <v>4105.190361752584</v>
@@ -6974,7 +6974,7 @@
         <v>3471.820727203185</v>
       </c>
       <c r="W35" t="n">
-        <v>3154.906027777561</v>
+        <v>3154.906027777562</v>
       </c>
       <c r="X35" t="n">
         <v>2817.294225360972</v>
@@ -6990,40 +6990,40 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>959.6170717285981</v>
+        <v>959.617071728598</v>
       </c>
       <c r="C36" t="n">
-        <v>785.1640424474712</v>
+        <v>785.164042447471</v>
       </c>
       <c r="D36" t="n">
-        <v>636.22963278622</v>
+        <v>636.2296327862198</v>
       </c>
       <c r="E36" t="n">
-        <v>476.9921777807645</v>
+        <v>476.9921777807642</v>
       </c>
       <c r="F36" t="n">
-        <v>330.4576198076495</v>
+        <v>330.4576198076492</v>
       </c>
       <c r="G36" t="n">
-        <v>194.0945196402678</v>
+        <v>194.0945196402673</v>
       </c>
       <c r="H36" t="n">
-        <v>103.5926252781352</v>
+        <v>103.5926252781348</v>
       </c>
       <c r="I36" t="n">
         <v>84.58533367967279</v>
       </c>
       <c r="J36" t="n">
-        <v>178.2626031702899</v>
+        <v>178.2626031702901</v>
       </c>
       <c r="K36" t="n">
         <v>416.5268021506373</v>
       </c>
       <c r="L36" t="n">
-        <v>783.2249624633024</v>
+        <v>783.2249624633026</v>
       </c>
       <c r="M36" t="n">
-        <v>1230.501287685618</v>
+        <v>1230.501287685619</v>
       </c>
       <c r="N36" t="n">
         <v>1704.024331240073</v>
@@ -7044,13 +7044,13 @@
         <v>2453.544519866826</v>
       </c>
       <c r="T36" t="n">
-        <v>2260.901519544682</v>
+        <v>2260.901519544681</v>
       </c>
       <c r="U36" t="n">
         <v>2032.833672679097</v>
       </c>
       <c r="V36" t="n">
-        <v>1797.681564447355</v>
+        <v>1797.681564447354</v>
       </c>
       <c r="W36" t="n">
         <v>1543.444207719153</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>582.2589880867702</v>
+        <v>582.2589880867686</v>
       </c>
       <c r="C37" t="n">
-        <v>449.1767610033538</v>
+        <v>449.1767610033522</v>
       </c>
       <c r="D37" t="n">
-        <v>388.2691667352785</v>
+        <v>334.9140774355071</v>
       </c>
       <c r="E37" t="n">
-        <v>388.2691667352785</v>
+        <v>327.4702061138829</v>
       </c>
       <c r="F37" t="n">
-        <v>388.2691667352785</v>
+        <v>216.4342144604632</v>
       </c>
       <c r="G37" t="n">
-        <v>256.4202859544882</v>
+        <v>84.58533367967279</v>
       </c>
       <c r="H37" t="n">
-        <v>146.0570550168367</v>
+        <v>84.58533367967279</v>
       </c>
       <c r="I37" t="n">
         <v>84.58533367967279</v>
@@ -7096,10 +7096,10 @@
         <v>164.8484282497936</v>
       </c>
       <c r="K37" t="n">
-        <v>403.9760733218554</v>
+        <v>403.9760733218552</v>
       </c>
       <c r="L37" t="n">
-        <v>755.6763338935367</v>
+        <v>755.6763338935366</v>
       </c>
       <c r="M37" t="n">
         <v>1134.973841616271</v>
@@ -7108,37 +7108,37 @@
         <v>1511.522680445321</v>
       </c>
       <c r="O37" t="n">
-        <v>1845.99274148892</v>
+        <v>1845.992741488919</v>
       </c>
       <c r="P37" t="n">
-        <v>2113.740704045765</v>
+        <v>2113.740704045764</v>
       </c>
       <c r="Q37" t="n">
-        <v>2226.491462321465</v>
+        <v>2226.491462321464</v>
       </c>
       <c r="R37" t="n">
-        <v>2172.514960923483</v>
+        <v>2172.514960923482</v>
       </c>
       <c r="S37" t="n">
-        <v>2016.6830325948</v>
+        <v>2016.683032594799</v>
       </c>
       <c r="T37" t="n">
-        <v>1830.770373008817</v>
+        <v>1830.770373008816</v>
       </c>
       <c r="U37" t="n">
-        <v>1577.521461978951</v>
+        <v>1577.52146197895</v>
       </c>
       <c r="V37" t="n">
-        <v>1358.690929617555</v>
+        <v>1358.690929617554</v>
       </c>
       <c r="W37" t="n">
-        <v>1105.127715425085</v>
+        <v>1105.127715425084</v>
       </c>
       <c r="X37" t="n">
-        <v>912.9921203715585</v>
+        <v>912.9921203715571</v>
       </c>
       <c r="Y37" t="n">
-        <v>728.0534970725191</v>
+        <v>728.0534970725176</v>
       </c>
     </row>
     <row r="38">
@@ -7148,16 +7148,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2112.262965010021</v>
+        <v>2112.262965010019</v>
       </c>
       <c r="C38" t="n">
-        <v>1779.1544039141</v>
+        <v>1779.154403914098</v>
       </c>
       <c r="D38" t="n">
-        <v>1456.74266115184</v>
+        <v>1456.742661151839</v>
       </c>
       <c r="E38" t="n">
-        <v>1106.808364398086</v>
+        <v>1106.808364398085</v>
       </c>
       <c r="F38" t="n">
         <v>731.6764154529683</v>
@@ -7166,58 +7166,58 @@
         <v>352.4579211424555</v>
       </c>
       <c r="H38" t="n">
-        <v>90.72827659571337</v>
+        <v>90.72827659571328</v>
       </c>
       <c r="I38" t="n">
-        <v>84.58533367967279</v>
+        <v>84.58533367967276</v>
       </c>
       <c r="J38" t="n">
         <v>273.4644646386982</v>
       </c>
       <c r="K38" t="n">
-        <v>607.2838383285448</v>
+        <v>607.2838383285447</v>
       </c>
       <c r="L38" t="n">
-        <v>1471.8026539819</v>
+        <v>1058.318051576954</v>
       </c>
       <c r="M38" t="n">
-        <v>2005.334558653824</v>
+        <v>1591.849956248878</v>
       </c>
       <c r="N38" t="n">
-        <v>2985.086830880471</v>
+        <v>2138.628773307661</v>
       </c>
       <c r="O38" t="n">
-        <v>3488.059301759808</v>
+        <v>3018.593423637115</v>
       </c>
       <c r="P38" t="n">
-        <v>3882.833668116986</v>
+        <v>3711.771414917847</v>
       </c>
       <c r="Q38" t="n">
-        <v>4170.249617426837</v>
+        <v>4170.249617426835</v>
       </c>
       <c r="R38" t="n">
-        <v>4229.266683983639</v>
+        <v>4229.266683983637</v>
       </c>
       <c r="S38" t="n">
-        <v>4154.829971355225</v>
+        <v>4154.829971355223</v>
       </c>
       <c r="T38" t="n">
-        <v>3984.706179583938</v>
+        <v>3984.706179583936</v>
       </c>
       <c r="U38" t="n">
-        <v>3767.029658702265</v>
+        <v>3767.029658702264</v>
       </c>
       <c r="V38" t="n">
-        <v>3471.820727203185</v>
+        <v>3471.820727203184</v>
       </c>
       <c r="W38" t="n">
-        <v>3154.906027777562</v>
+        <v>3154.90602777756</v>
       </c>
       <c r="X38" t="n">
-        <v>2817.294225360973</v>
+        <v>2817.294225360971</v>
       </c>
       <c r="Y38" t="n">
-        <v>2463.008849229652</v>
+        <v>2463.00884922965</v>
       </c>
     </row>
     <row r="39">
@@ -7248,7 +7248,7 @@
         <v>103.5926252781348</v>
       </c>
       <c r="I39" t="n">
-        <v>84.58533367967279</v>
+        <v>84.58533367967276</v>
       </c>
       <c r="J39" t="n">
         <v>178.2626031702901</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>582.2589880867703</v>
+        <v>686.8742545030466</v>
       </c>
       <c r="C40" t="n">
-        <v>449.176761003354</v>
+        <v>553.7920274196305</v>
       </c>
       <c r="D40" t="n">
-        <v>449.176761003354</v>
+        <v>439.5293438517855</v>
       </c>
       <c r="E40" t="n">
-        <v>337.1176232654516</v>
+        <v>327.4702061138831</v>
       </c>
       <c r="F40" t="n">
-        <v>226.081631612032</v>
+        <v>216.4342144604635</v>
       </c>
       <c r="G40" t="n">
-        <v>194.9485646173243</v>
+        <v>84.58533367967276</v>
       </c>
       <c r="H40" t="n">
-        <v>84.58533367967279</v>
+        <v>84.58533367967276</v>
       </c>
       <c r="I40" t="n">
-        <v>84.58533367967279</v>
+        <v>84.58533367967276</v>
       </c>
       <c r="J40" t="n">
         <v>164.8484282497937</v>
@@ -7336,7 +7336,7 @@
         <v>403.9760733218554</v>
       </c>
       <c r="L40" t="n">
-        <v>755.6763338935368</v>
+        <v>755.6763338935369</v>
       </c>
       <c r="M40" t="n">
         <v>1134.973841616271</v>
@@ -7351,31 +7351,31 @@
         <v>2113.740704045765</v>
       </c>
       <c r="Q40" t="n">
-        <v>2226.491462321464</v>
+        <v>2226.491462321465</v>
       </c>
       <c r="R40" t="n">
-        <v>2172.514960923483</v>
+        <v>2172.514960923484</v>
       </c>
       <c r="S40" t="n">
-        <v>2016.6830325948</v>
+        <v>2016.683032594801</v>
       </c>
       <c r="T40" t="n">
-        <v>1830.770373008817</v>
+        <v>1830.770373008818</v>
       </c>
       <c r="U40" t="n">
-        <v>1577.521461978952</v>
+        <v>1682.136728395228</v>
       </c>
       <c r="V40" t="n">
-        <v>1358.690929617555</v>
+        <v>1463.306196033832</v>
       </c>
       <c r="W40" t="n">
-        <v>1105.127715425085</v>
+        <v>1209.742981841362</v>
       </c>
       <c r="X40" t="n">
-        <v>912.9921203715587</v>
+        <v>1017.607386787835</v>
       </c>
       <c r="Y40" t="n">
-        <v>728.0534970725193</v>
+        <v>832.6687634887955</v>
       </c>
     </row>
     <row r="41">
@@ -7397,58 +7397,58 @@
         <v>1106.808364398085</v>
       </c>
       <c r="F41" t="n">
-        <v>731.6764154529683</v>
+        <v>731.6764154529681</v>
       </c>
       <c r="G41" t="n">
-        <v>352.4579211424555</v>
+        <v>352.4579211424552</v>
       </c>
       <c r="H41" t="n">
-        <v>90.72827659571337</v>
+        <v>90.72827659571328</v>
       </c>
       <c r="I41" t="n">
-        <v>84.58533367967279</v>
+        <v>84.58533367967276</v>
       </c>
       <c r="J41" t="n">
         <v>273.4644646386982</v>
       </c>
       <c r="K41" t="n">
-        <v>607.2838383285448</v>
+        <v>607.2838383285447</v>
       </c>
       <c r="L41" t="n">
-        <v>1058.318051576954</v>
+        <v>1065.913843378163</v>
       </c>
       <c r="M41" t="n">
-        <v>2036.868354406782</v>
+        <v>2044.464146207991</v>
       </c>
       <c r="N41" t="n">
-        <v>3016.620626633429</v>
+        <v>3024.216418434638</v>
       </c>
       <c r="O41" t="n">
-        <v>3519.593097512766</v>
+        <v>3527.188889313975</v>
       </c>
       <c r="P41" t="n">
-        <v>3914.367463869944</v>
+        <v>3921.963255671153</v>
       </c>
       <c r="Q41" t="n">
-        <v>4170.249617426837</v>
+        <v>4170.249617426835</v>
       </c>
       <c r="R41" t="n">
-        <v>4229.266683983639</v>
+        <v>4229.266683983637</v>
       </c>
       <c r="S41" t="n">
-        <v>4154.829971355225</v>
+        <v>4154.829971355223</v>
       </c>
       <c r="T41" t="n">
-        <v>3984.706179583938</v>
+        <v>3984.706179583936</v>
       </c>
       <c r="U41" t="n">
-        <v>3767.029658702265</v>
+        <v>3767.029658702264</v>
       </c>
       <c r="V41" t="n">
         <v>3471.820727203184</v>
       </c>
       <c r="W41" t="n">
-        <v>3154.906027777561</v>
+        <v>3154.90602777756</v>
       </c>
       <c r="X41" t="n">
         <v>2817.294225360971</v>
@@ -7485,7 +7485,7 @@
         <v>103.5926252781348</v>
       </c>
       <c r="I42" t="n">
-        <v>84.58533367967279</v>
+        <v>84.58533367967276</v>
       </c>
       <c r="J42" t="n">
         <v>178.2626031702901</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>747.6732151244421</v>
+        <v>582.2589880867708</v>
       </c>
       <c r="C43" t="n">
-        <v>614.5909880410259</v>
+        <v>449.1767610033546</v>
       </c>
       <c r="D43" t="n">
-        <v>500.3283044731809</v>
+        <v>334.9140774355096</v>
       </c>
       <c r="E43" t="n">
-        <v>388.2691667352785</v>
+        <v>222.8549396976073</v>
       </c>
       <c r="F43" t="n">
-        <v>388.2691667352785</v>
+        <v>194.9485646173242</v>
       </c>
       <c r="G43" t="n">
-        <v>256.4202859544882</v>
+        <v>194.9485646173242</v>
       </c>
       <c r="H43" t="n">
-        <v>146.0570550168367</v>
+        <v>84.58533367967276</v>
       </c>
       <c r="I43" t="n">
-        <v>84.58533367967279</v>
+        <v>84.58533367967276</v>
       </c>
       <c r="J43" t="n">
         <v>164.8484282497937</v>
       </c>
       <c r="K43" t="n">
-        <v>403.9760733218556</v>
+        <v>403.9760733218554</v>
       </c>
       <c r="L43" t="n">
-        <v>755.676333893537</v>
+        <v>755.6763338935369</v>
       </c>
       <c r="M43" t="n">
         <v>1134.973841616271</v>
@@ -7588,7 +7588,7 @@
         <v>2113.740704045765</v>
       </c>
       <c r="Q43" t="n">
-        <v>2226.491462321464</v>
+        <v>2226.491462321465</v>
       </c>
       <c r="R43" t="n">
         <v>2172.514960923483</v>
@@ -7600,19 +7600,19 @@
         <v>1830.770373008817</v>
       </c>
       <c r="U43" t="n">
-        <v>1577.521461978951</v>
+        <v>1577.521461978952</v>
       </c>
       <c r="V43" t="n">
-        <v>1358.690929617555</v>
+        <v>1358.690929617556</v>
       </c>
       <c r="W43" t="n">
-        <v>1270.541942462757</v>
+        <v>1105.127715425086</v>
       </c>
       <c r="X43" t="n">
-        <v>1078.40634740923</v>
+        <v>912.9921203715592</v>
       </c>
       <c r="Y43" t="n">
-        <v>893.4677241101911</v>
+        <v>728.0534970725198</v>
       </c>
     </row>
     <row r="44">
@@ -7640,52 +7640,52 @@
         <v>352.4579211424555</v>
       </c>
       <c r="H44" t="n">
-        <v>90.72827659571337</v>
+        <v>90.72827659571328</v>
       </c>
       <c r="I44" t="n">
-        <v>84.58533367967279</v>
+        <v>84.58533367967276</v>
       </c>
       <c r="J44" t="n">
         <v>440.8701136590512</v>
       </c>
       <c r="K44" t="n">
-        <v>982.7938296233669</v>
+        <v>774.6894873488977</v>
       </c>
       <c r="L44" t="n">
-        <v>1433.828042871776</v>
+        <v>1225.723700597307</v>
       </c>
       <c r="M44" t="n">
-        <v>2412.378345701604</v>
+        <v>1759.255605269231</v>
       </c>
       <c r="N44" t="n">
-        <v>2959.157162760387</v>
+        <v>2739.007877495878</v>
       </c>
       <c r="O44" t="n">
-        <v>3462.129633639724</v>
+        <v>3241.980348375215</v>
       </c>
       <c r="P44" t="n">
-        <v>3856.903999996902</v>
+        <v>3921.963255671153</v>
       </c>
       <c r="Q44" t="n">
-        <v>4105.190361752584</v>
+        <v>4170.249617426835</v>
       </c>
       <c r="R44" t="n">
-        <v>4229.266683983639</v>
+        <v>4229.266683983637</v>
       </c>
       <c r="S44" t="n">
-        <v>4154.829971355225</v>
+        <v>4154.829971355223</v>
       </c>
       <c r="T44" t="n">
-        <v>3984.706179583938</v>
+        <v>3984.706179583936</v>
       </c>
       <c r="U44" t="n">
-        <v>3767.029658702265</v>
+        <v>3767.029658702264</v>
       </c>
       <c r="V44" t="n">
         <v>3471.820727203184</v>
       </c>
       <c r="W44" t="n">
-        <v>3154.906027777561</v>
+        <v>3154.90602777756</v>
       </c>
       <c r="X44" t="n">
         <v>2817.294225360971</v>
@@ -7722,7 +7722,7 @@
         <v>103.5926252781348</v>
       </c>
       <c r="I45" t="n">
-        <v>84.58533367967279</v>
+        <v>84.58533367967276</v>
       </c>
       <c r="J45" t="n">
         <v>178.2626031702901</v>
@@ -7780,31 +7780,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>728.0534970725189</v>
+        <v>611.3642961266004</v>
       </c>
       <c r="C46" t="n">
-        <v>594.9712699891029</v>
+        <v>611.3642961266004</v>
       </c>
       <c r="D46" t="n">
-        <v>480.7085864212578</v>
+        <v>611.3642961266004</v>
       </c>
       <c r="E46" t="n">
-        <v>388.2691667352786</v>
+        <v>499.305158388698</v>
       </c>
       <c r="F46" t="n">
-        <v>388.2691667352786</v>
+        <v>388.2691667352784</v>
       </c>
       <c r="G46" t="n">
-        <v>256.4202859544882</v>
+        <v>256.4202859544881</v>
       </c>
       <c r="H46" t="n">
         <v>146.0570550168367</v>
       </c>
       <c r="I46" t="n">
-        <v>84.58533367967279</v>
+        <v>84.58533367967276</v>
       </c>
       <c r="J46" t="n">
-        <v>164.8484282497937</v>
+        <v>164.8484282497936</v>
       </c>
       <c r="K46" t="n">
         <v>403.9760733218554</v>
@@ -7846,10 +7846,10 @@
         <v>1105.127715425085</v>
       </c>
       <c r="X46" t="n">
-        <v>912.9921203715583</v>
+        <v>912.9921203715588</v>
       </c>
       <c r="Y46" t="n">
-        <v>728.0534970725189</v>
+        <v>757.1588051123493</v>
       </c>
     </row>
   </sheetData>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>62.50551572733623</v>
+        <v>85.32383557664681</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>236.6441711037781</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>53.06279368686218</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8532,10 +8532,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L9" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8690,7 +8690,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>201.9664098701136</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
@@ -8699,19 +8699,19 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>39.4832155777267</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8927,22 +8927,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>67.53663776704263</v>
       </c>
       <c r="P14" t="n">
-        <v>249.451501837949</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -9161,31 +9161,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>201.9664098701132</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>29.61882225793252</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9264,7 +9264,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>7.496531173600829e-12</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9404,7 +9404,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>29.61882225793352</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>29.61882225792185</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9641,7 +9641,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>449.5135334928325</v>
@@ -9650,16 +9650,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>170.1140909277305</v>
       </c>
       <c r="Q23" t="n">
-        <v>67.53663776704397</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9872,31 +9872,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>132.9990175570123</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>413.669975960784</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,28 +10109,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>29.61882225792147</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10349,19 +10349,19 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>258.621178561693</v>
+        <v>67.53663776704263</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10586,10 +10586,10 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>294.7028561713666</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10601,10 +10601,10 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>87.0099278811382</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10826,22 +10826,22 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>301.4178029530846</v>
       </c>
       <c r="Q38" t="n">
-        <v>39.5248359133021</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -11063,7 +11063,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>7.672516970918366</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11078,7 +11078,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>7.6725169709201</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -11297,28 +11297,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>210.2064063378478</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>288.0894352916769</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,19 +23461,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>228.9860471407691</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>2.891342116487692</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23653,19 +23653,19 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>24.57816088419611</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>4.518450496391324</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23698,25 +23698,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>5.14898323731006</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983822</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004751</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>245.8925951090109</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983823</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004753</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>105.0742887270137</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>16.1421360569708</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24364,25 +24364,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>3.143726433610709</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,25 +24409,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>34.04345294514755</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>16.14213605696643</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>16.14213605696628</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24841,13 +24841,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>18.47901711641499</v>
       </c>
       <c r="G31" t="n">
         <v>166.0258082590282</v>
@@ -24889,10 +24889,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>16.14213605696636</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,28 +25072,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>16.14213605696628</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>118.3180744898035</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,16 +25129,16 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>52.82153840677211</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>110.9385463605234</v>
+        <v>103.5691137521155</v>
       </c>
       <c r="F37" t="n">
-        <v>109.9256317368855</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>109.2595986282751</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>60.85700412379237</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25552,7 +25552,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>113.1200567321666</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25561,13 +25561,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>99.70865564822167</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>109.259598628275</v>
       </c>
       <c r="I40" t="n">
-        <v>60.85700412379231</v>
+        <v>60.85700412379227</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>103.5691137521129</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25795,16 +25795,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>109.9256317368855</v>
+        <v>82.29832040740486</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>130.5303919729824</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>60.85700412379227</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25846,7 +25846,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>163.7600847672957</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26020,19 +26020,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>144.3365638958915</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>131.751404812582</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>113.1200567321665</v>
       </c>
       <c r="E46" t="n">
-        <v>19.42352087140392</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>109.9256317368855</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>28.81425495943191</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>917731.830241026</v>
+        <v>917731.8302410261</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>917731.8302410264</v>
+        <v>917731.8302410261</v>
       </c>
     </row>
     <row r="8">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>917731.8302410261</v>
+        <v>917731.830241026</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>933012.9288468115</v>
+        <v>933012.9288468114</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>933012.9288468115</v>
+        <v>933012.9288468116</v>
       </c>
     </row>
     <row r="16">
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.1061651774</v>
+        <v>513151.1061651771</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.1061651768</v>
+        <v>513151.1061651769</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.1061651769</v>
+        <v>513151.1061651765</v>
       </c>
       <c r="E2" t="n">
         <v>496352.2336087289</v>
@@ -26326,34 +26326,34 @@
         <v>496352.2336087289</v>
       </c>
       <c r="G2" t="n">
+        <v>496352.2336087287</v>
+      </c>
+      <c r="H2" t="n">
         <v>496352.2336087289</v>
-      </c>
-      <c r="H2" t="n">
-        <v>496352.2336087291</v>
       </c>
       <c r="I2" t="n">
         <v>496352.2336087289</v>
       </c>
       <c r="J2" t="n">
-        <v>496352.2336087288</v>
+        <v>496352.233608729</v>
       </c>
       <c r="K2" t="n">
         <v>496352.2336087289</v>
       </c>
       <c r="L2" t="n">
-        <v>496352.2336087287</v>
+        <v>496352.2336087289</v>
       </c>
       <c r="M2" t="n">
-        <v>509045.8204176142</v>
+        <v>509045.8204176141</v>
       </c>
       <c r="N2" t="n">
-        <v>509045.8204176142</v>
+        <v>509045.8204176141</v>
       </c>
       <c r="O2" t="n">
         <v>509045.8204176144</v>
       </c>
       <c r="P2" t="n">
-        <v>509045.8204176144</v>
+        <v>509045.8204176141</v>
       </c>
     </row>
     <row r="3">
@@ -26363,43 +26363,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>507203.1428394266</v>
+        <v>507203.1428394307</v>
       </c>
       <c r="C3" t="n">
-        <v>78665.28217418057</v>
+        <v>78665.28217417665</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934067</v>
+        <v>727377.4139934066</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>-1.011341013266551e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.882708374978392e-09</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>157829.4001410733</v>
+        <v>157829.4001410744</v>
       </c>
       <c r="K3" t="n">
-        <v>18289.94367022172</v>
+        <v>18289.94367022079</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>123848.7911881751</v>
+        <v>123848.791188175</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>7.389644451905042e-11</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>223242.9088455553</v>
+        <v>223242.9088455542</v>
       </c>
       <c r="C4" t="n">
-        <v>201064.5059277315</v>
+        <v>201064.5059277316</v>
       </c>
       <c r="D4" t="n">
         <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
+        <v>25090.72367499384</v>
+      </c>
+      <c r="F4" t="n">
         <v>25090.72367499382</v>
       </c>
-      <c r="F4" t="n">
-        <v>25090.72367499381</v>
-      </c>
       <c r="G4" t="n">
-        <v>25090.72367499403</v>
+        <v>25090.72367499383</v>
       </c>
       <c r="H4" t="n">
-        <v>25090.72367499395</v>
+        <v>25090.72367499377</v>
       </c>
       <c r="I4" t="n">
-        <v>25090.72367499383</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="J4" t="n">
         <v>25090.72367499382</v>
       </c>
       <c r="K4" t="n">
-        <v>25090.72367499381</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="L4" t="n">
         <v>25090.72367499382</v>
       </c>
       <c r="M4" t="n">
-        <v>53328.24410000354</v>
+        <v>53328.24410000348</v>
       </c>
       <c r="N4" t="n">
-        <v>53328.24410000349</v>
+        <v>53328.24410000356</v>
       </c>
       <c r="O4" t="n">
-        <v>53328.24410000351</v>
+        <v>53328.24410000358</v>
       </c>
       <c r="P4" t="n">
-        <v>53328.2441000035</v>
+        <v>53328.24410000357</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>77204.68871133431</v>
+        <v>77204.6887113346</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26476,19 +26476,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="F5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371361</v>
+        <v>96383.51825371367</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371361</v>
+        <v>96383.51825371367</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371367</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
         <v>96383.51825371366</v>
@@ -26500,16 +26500,16 @@
         <v>96383.51825371366</v>
       </c>
       <c r="M5" t="n">
-        <v>91026.04982123681</v>
+        <v>91026.0498212368</v>
       </c>
       <c r="N5" t="n">
-        <v>91026.0498212368</v>
+        <v>91026.04982123678</v>
       </c>
       <c r="O5" t="n">
-        <v>91026.0498212368</v>
+        <v>91026.04982123678</v>
       </c>
       <c r="P5" t="n">
-        <v>91026.0498212368</v>
+        <v>91026.04982123678</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-294499.6342311389</v>
+        <v>-294499.6342311425</v>
       </c>
       <c r="C6" t="n">
-        <v>150562.2399998553</v>
+        <v>150562.2399998592</v>
       </c>
       <c r="D6" t="n">
-        <v>229227.5221740359</v>
+        <v>229227.5221740355</v>
       </c>
       <c r="E6" t="n">
-        <v>-352499.4223133852</v>
+        <v>-352566.617803611</v>
       </c>
       <c r="F6" t="n">
-        <v>374877.9916800215</v>
+        <v>374810.7961897955</v>
       </c>
       <c r="G6" t="n">
-        <v>374877.991680023</v>
+        <v>374810.7961897954</v>
       </c>
       <c r="H6" t="n">
-        <v>374877.9916800215</v>
+        <v>374810.7961897956</v>
       </c>
       <c r="I6" t="n">
-        <v>374877.9916800195</v>
+        <v>374810.7961897955</v>
       </c>
       <c r="J6" t="n">
-        <v>217048.5915389479</v>
+        <v>216981.3960487213</v>
       </c>
       <c r="K6" t="n">
-        <v>356588.0480097997</v>
+        <v>356520.8525195747</v>
       </c>
       <c r="L6" t="n">
-        <v>374877.9916800212</v>
+        <v>374810.7961897957</v>
       </c>
       <c r="M6" t="n">
-        <v>240842.7353081988</v>
+        <v>240826.3141652085</v>
       </c>
       <c r="N6" t="n">
-        <v>364691.5264963739</v>
+        <v>364675.1053533835</v>
       </c>
       <c r="O6" t="n">
-        <v>364691.526496374</v>
+        <v>364675.1053533838</v>
       </c>
       <c r="P6" t="n">
-        <v>364691.526496374</v>
+        <v>364675.1053533836</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="N2" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="O2" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="P2" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604582</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>316.5685789688978</v>
+        <v>316.5685789689008</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26750,10 +26750,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593296</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
-        <v>1089.776700593296</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="I3" t="n">
         <v>1089.776700593298</v>
@@ -26768,7 +26768,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="M3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="N3" t="n">
         <v>1089.776700593298</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>603.221935687703</v>
+        <v>603.2219356877066</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26823,13 +26823,13 @@
         <v>1057.31667099591</v>
       </c>
       <c r="N4" t="n">
-        <v>1057.31667099591</v>
+        <v>1057.316670995909</v>
       </c>
       <c r="O4" t="n">
-        <v>1057.31667099591</v>
+        <v>1057.316670995909</v>
       </c>
       <c r="P4" t="n">
-        <v>1057.31667099591</v>
+        <v>1057.316670995909</v>
       </c>
     </row>
   </sheetData>
@@ -26938,10 +26938,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>9.237055564881302e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26957,28 +26957,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>316.5685789688978</v>
+        <v>316.5685789689008</v>
       </c>
       <c r="C3" t="n">
-        <v>61.17508524818885</v>
+        <v>61.17508524818584</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762116</v>
+        <v>712.0330363762114</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>-1.813418947046331e-12</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.501110429875553e-12</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,10 +27009,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>603.221935687703</v>
+        <v>603.2219356877066</v>
       </c>
       <c r="C4" t="n">
-        <v>71.06533706685262</v>
+        <v>71.065337066849</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27033,10 +27033,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>603.2219356877027</v>
+        <v>603.2219356877067</v>
       </c>
       <c r="K4" t="n">
-        <v>71.06533706685262</v>
+        <v>71.065337066849</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27255,10 +27255,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>603.221935687703</v>
+        <v>603.2219356877066</v>
       </c>
       <c r="K4" t="n">
-        <v>71.06533706685262</v>
+        <v>71.065337066849</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27382,22 +27382,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
       </c>
-      <c r="G2" t="n">
-        <v>26.6225614720114</v>
-      </c>
       <c r="H2" t="n">
-        <v>326.4414032841482</v>
+        <v>326.441403284148</v>
       </c>
       <c r="I2" t="n">
-        <v>161.4125322208645</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>69.92680236866715</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.5248788930305</v>
+        <v>217.5248788930304</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2438419075651</v>
+        <v>191.51966628705</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27470,7 +27470,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.6625960688247</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27515,10 +27515,10 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>126.3429160502225</v>
       </c>
       <c r="W3" t="n">
-        <v>156.2135036312797</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -27543,22 +27543,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>85.3329806767765</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>138.2831165792398</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>52.99928112255571</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,13 +27579,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>38.36018782739082</v>
+        <v>38.36018782739037</v>
       </c>
       <c r="R4" t="n">
-        <v>151.625388236511</v>
+        <v>151.6253882365108</v>
       </c>
       <c r="S4" t="n">
-        <v>214.068041219212</v>
+        <v>214.0680412192119</v>
       </c>
       <c r="T4" t="n">
         <v>225.5064544755703</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>111.6223217034326</v>
       </c>
     </row>
     <row r="5">
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27625,10 +27625,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>374.8917248070735</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27670,16 +27670,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>166.8806347900433</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -27749,7 +27749,7 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>3.694822225952521e-13</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27771,22 +27771,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>141.9938968421885</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27831,13 +27831,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>96.92615468724711</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27856,7 +27856,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>274.603702785291</v>
+        <v>26.88499137258549</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,25 +27898,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,19 +28011,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
         <v>107.5829646831825</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28864,7 +28864,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>-1.307398633798584e-12</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="C35" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="D35" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="E35" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="F35" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="G35" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="H35" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="I35" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="T35" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="U35" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="V35" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="W35" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="X35" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="Y35" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604573</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="C37" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="D37" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="E37" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="F37" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="G37" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="H37" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="I37" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="J37" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="K37" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="L37" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="M37" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="N37" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="O37" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="P37" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="Q37" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="R37" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="S37" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="T37" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="U37" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="V37" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="W37" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="X37" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="Y37" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604573</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="C38" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="D38" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="E38" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="F38" t="n">
-        <v>35.49541628604464</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="G38" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="H38" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604567</v>
       </c>
       <c r="I38" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="T38" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="U38" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="V38" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="W38" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="X38" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="Y38" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604582</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="C40" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="D40" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="E40" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="F40" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="G40" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="H40" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="I40" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="J40" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="K40" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="L40" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="M40" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="N40" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="O40" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="P40" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="Q40" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="R40" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="S40" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="T40" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="U40" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="V40" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="W40" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="X40" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="Y40" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604582</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="C41" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="D41" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="E41" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="F41" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="G41" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="H41" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="I41" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="T41" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="U41" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="V41" t="n">
-        <v>35.49541628604493</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="W41" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="X41" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="Y41" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604582</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="C43" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="D43" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="E43" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="F43" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="G43" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="H43" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="I43" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="J43" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="K43" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="L43" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="M43" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="N43" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="O43" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="P43" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="Q43" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="R43" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="S43" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="T43" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="U43" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="V43" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="W43" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="X43" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="Y43" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604582</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="C44" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="D44" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="E44" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="F44" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="G44" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="H44" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604567</v>
       </c>
       <c r="I44" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="T44" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="U44" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="V44" t="n">
-        <v>35.49541628604493</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="W44" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="X44" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="Y44" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604582</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="C46" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="D46" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="E46" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="F46" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="G46" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="H46" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="I46" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="J46" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="K46" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="L46" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="M46" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="N46" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="O46" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="P46" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="Q46" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="R46" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="S46" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="T46" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="U46" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="V46" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="W46" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="X46" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="Y46" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604582</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.272637503392553</v>
+        <v>1.272637503392565</v>
       </c>
       <c r="H2" t="n">
-        <v>13.03339883161899</v>
+        <v>13.03339883161911</v>
       </c>
       <c r="I2" t="n">
-        <v>49.06335734954144</v>
+        <v>49.06335734954191</v>
       </c>
       <c r="J2" t="n">
-        <v>108.0135173035638</v>
+        <v>108.0135173035648</v>
       </c>
       <c r="K2" t="n">
-        <v>161.8842628221706</v>
+        <v>161.8842628221721</v>
       </c>
       <c r="L2" t="n">
-        <v>200.8317428166205</v>
+        <v>200.8317428166224</v>
       </c>
       <c r="M2" t="n">
-        <v>223.4640100175778</v>
+        <v>223.4640100175799</v>
       </c>
       <c r="N2" t="n">
-        <v>227.0798913240919</v>
+        <v>227.079891324094</v>
       </c>
       <c r="O2" t="n">
-        <v>214.4251021497322</v>
+        <v>214.4251021497342</v>
       </c>
       <c r="P2" t="n">
-        <v>183.0068637847285</v>
+        <v>183.0068637847302</v>
       </c>
       <c r="Q2" t="n">
-        <v>137.4305331944826</v>
+        <v>137.430533194484</v>
       </c>
       <c r="R2" t="n">
-        <v>79.94231557248253</v>
+        <v>79.94231557248328</v>
       </c>
       <c r="S2" t="n">
-        <v>29.00022710855783</v>
+        <v>29.0002271085581</v>
       </c>
       <c r="T2" t="n">
-        <v>5.570970671100904</v>
+        <v>5.570970671100956</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1018110002714042</v>
+        <v>0.1018110002714052</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6809210943859311</v>
+        <v>0.6809210943859376</v>
       </c>
       <c r="H3" t="n">
-        <v>6.576264253674651</v>
+        <v>6.576264253674714</v>
       </c>
       <c r="I3" t="n">
-        <v>23.44399381986649</v>
+        <v>23.44399381986671</v>
       </c>
       <c r="J3" t="n">
-        <v>64.33211093933046</v>
+        <v>64.33211093933107</v>
       </c>
       <c r="K3" t="n">
-        <v>109.9538242631878</v>
+        <v>109.9538242631889</v>
       </c>
       <c r="L3" t="n">
-        <v>147.8464858665593</v>
+        <v>147.8464858665607</v>
       </c>
       <c r="M3" t="n">
-        <v>172.5298755380493</v>
+        <v>172.5298755380509</v>
       </c>
       <c r="N3" t="n">
-        <v>177.0962279648743</v>
+        <v>177.0962279648759</v>
       </c>
       <c r="O3" t="n">
-        <v>162.0084500313754</v>
+        <v>162.008450031377</v>
       </c>
       <c r="P3" t="n">
-        <v>130.0260640674328</v>
+        <v>130.026064067434</v>
       </c>
       <c r="Q3" t="n">
-        <v>86.91898039915851</v>
+        <v>86.91898039915934</v>
       </c>
       <c r="R3" t="n">
-        <v>42.27683777248792</v>
+        <v>42.27683777248831</v>
       </c>
       <c r="S3" t="n">
-        <v>12.64781067861586</v>
+        <v>12.64781067861598</v>
       </c>
       <c r="T3" t="n">
-        <v>2.744589849739782</v>
+        <v>2.744589849739809</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04479744042012707</v>
+        <v>0.04479744042012749</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5708613719111271</v>
+        <v>0.5708613719111325</v>
       </c>
       <c r="H4" t="n">
-        <v>5.075476561173479</v>
+        <v>5.075476561173527</v>
       </c>
       <c r="I4" t="n">
-        <v>17.16735834801826</v>
+        <v>17.16735834801843</v>
       </c>
       <c r="J4" t="n">
-        <v>40.35989899411668</v>
+        <v>40.35989899411707</v>
       </c>
       <c r="K4" t="n">
-        <v>66.32371211840184</v>
+        <v>66.32371211840247</v>
       </c>
       <c r="L4" t="n">
-        <v>84.87151705667794</v>
+        <v>84.87151705667875</v>
       </c>
       <c r="M4" t="n">
-        <v>89.48511487148694</v>
+        <v>89.4851148714878</v>
       </c>
       <c r="N4" t="n">
-        <v>87.35735884890917</v>
+        <v>87.35735884891</v>
       </c>
       <c r="O4" t="n">
-        <v>80.68866009522007</v>
+        <v>80.68866009522084</v>
       </c>
       <c r="P4" t="n">
-        <v>69.04308810823302</v>
+        <v>69.04308810823368</v>
       </c>
       <c r="Q4" t="n">
-        <v>47.80185542430356</v>
+        <v>47.80185542430402</v>
       </c>
       <c r="R4" t="n">
-        <v>25.66800314065849</v>
+        <v>25.66800314065873</v>
       </c>
       <c r="S4" t="n">
-        <v>9.948556817760275</v>
+        <v>9.94855681776037</v>
       </c>
       <c r="T4" t="n">
-        <v>2.439134952711179</v>
+        <v>2.439134952711202</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03113789301333424</v>
+        <v>0.03113789301333454</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31835,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31923,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31941,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681588</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844658</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974796</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953981</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003798</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623179</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574979</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095008</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099044</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.99498197464</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678168</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563563</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806931</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
-        <v>19.17787942451116</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U17" t="n">
-        <v>0.350480948934527</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502561</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798527</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752241</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026433</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353149</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138785</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233463</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837912</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970239</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002918</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987481</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905538</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238307</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898478</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1542136840462212</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430534</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
-        <v>17.47215759311876</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742007</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
-        <v>138.9375967297387</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702019</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098814</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316426</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883109</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023085995</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6785118802164</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.5562817895877</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712197</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553029</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112278</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780292</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681587</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844658</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974796</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
-        <v>371.832905495398</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003797</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623178</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574977</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095005</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099042</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746399</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781679</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563563</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806928</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
-        <v>19.17787942451116</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U20" t="n">
-        <v>0.350480948934527</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502561</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798526</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.7051613175224</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026433</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353149</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138784</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233461</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.647816683791</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970238</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584003006</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987479</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905538</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238306</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898476</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1542136840462212</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430533</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
-        <v>17.47215759311875</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742005</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
-        <v>138.9375967297387</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702019</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098813</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316426</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883108</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023085995</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
-        <v>237.6785118802164</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.5562817895877</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712196</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553028</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112276</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780292</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33515,7 +33515,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
         <v>299.2156706987487</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H35" t="n">
         <v>44.86703772844668</v>
@@ -33655,40 +33655,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T35" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U35" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,46 +33725,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H36" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33807,43 +33807,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K37" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P37" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q37" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U37" t="n">
         <v>0.1071911508780295</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>96.06422794895127</v>
+        <v>96.06422794895229</v>
       </c>
       <c r="K2" t="n">
-        <v>265.9398243483548</v>
+        <v>265.9398243483563</v>
       </c>
       <c r="L2" t="n">
-        <v>382.7265423970837</v>
+        <v>382.7265423970856</v>
       </c>
       <c r="M2" t="n">
-        <v>442.6313102831375</v>
+        <v>442.6313102831397</v>
       </c>
       <c r="N2" t="n">
-        <v>435.0137521394851</v>
+        <v>435.0137521394873</v>
       </c>
       <c r="O2" t="n">
-        <v>365.1270719907908</v>
+        <v>365.1270719907928</v>
       </c>
       <c r="P2" t="n">
-        <v>273.5725762009416</v>
+        <v>273.5725762009433</v>
       </c>
       <c r="Q2" t="n">
-        <v>127.4398339799378</v>
+        <v>127.4398339799392</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>22.81831984931119</v>
       </c>
       <c r="K3" t="n">
-        <v>236.5776223014074</v>
+        <v>236.5776223014085</v>
       </c>
       <c r="L3" t="n">
-        <v>245.9362771904632</v>
+        <v>380.1324513901457</v>
       </c>
       <c r="M3" t="n">
-        <v>496.1009053660309</v>
+        <v>496.1009053660325</v>
       </c>
       <c r="N3" t="n">
-        <v>525.0968902250945</v>
+        <v>525.0968902250961</v>
       </c>
       <c r="O3" t="n">
-        <v>413.2745248636605</v>
+        <v>413.2745248636621</v>
       </c>
       <c r="P3" t="n">
-        <v>314.5144252930397</v>
+        <v>314.5144252930409</v>
       </c>
       <c r="Q3" t="n">
-        <v>157.0144940489861</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>44.05422029251899</v>
+        <v>44.05422029251962</v>
       </c>
       <c r="L4" t="n">
-        <v>112.4615423169941</v>
+        <v>112.4615423169949</v>
       </c>
       <c r="M4" t="n">
-        <v>129.0689918333275</v>
+        <v>129.0689918333284</v>
       </c>
       <c r="N4" t="n">
-        <v>131.4895312281378</v>
+        <v>131.4895312281386</v>
       </c>
       <c r="O4" t="n">
-        <v>105.2737880092597</v>
+        <v>105.2737880092605</v>
       </c>
       <c r="P4" t="n">
-        <v>66.32164737312651</v>
+        <v>66.32164737312716</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35012,13 +35012,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35252,10 +35252,10 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L9" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>539.157696425514</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
-        <v>591.7850509906382</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O11" t="n">
-        <v>888.8531821509645</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R11" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35580,13 +35580,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,22 +35647,22 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O14" t="n">
-        <v>888.8531821509645</v>
+        <v>575.5896386552618</v>
       </c>
       <c r="P14" t="n">
-        <v>648.2134880573209</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
         <v>250.7943048037195</v>
@@ -35805,7 +35805,7 @@
         <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>359.8836161407856</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>661.336699126564</v>
+        <v>539.1576964255137</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923307</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302252</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129099</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O17" t="n">
-        <v>888.853182150963</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908531</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636232</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>89.23202080015673</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597665</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609559</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340044</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013279</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.306104600458</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525794</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859615</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127265</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306594</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443191</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701975</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934832</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675395</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226392</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451099</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789332</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>359.8836161407855</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265639</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L20" t="n">
-        <v>485.2089366502641</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302249</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129097</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509628</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908531</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636231</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222415</v>
+        <v>89.23202080014663</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597659</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609559</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340042</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013278</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004577</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525793</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859704</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127264</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306591</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>206.047659544319</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701974</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934832</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675394</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226392</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451099</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789329</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36361,7 +36361,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
         <v>988.4346493230593</v>
@@ -36370,16 +36370,16 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>568.8760771471024</v>
       </c>
       <c r="Q23" t="n">
-        <v>318.3309425707635</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>323.7860185257249</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>952.5910917910107</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36829,28 +36829,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M29" t="n">
-        <v>568.5399380881482</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
         <v>59.61319854222478</v>
@@ -37069,19 +37069,19 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N32" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>766.6741794499121</v>
+        <v>575.5896386552618</v>
       </c>
       <c r="P32" t="n">
         <v>398.7619862193719</v>
@@ -37090,7 +37090,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37163,7 +37163,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
         <v>159.2338966127272</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265653</v>
+        <v>631.8941427267671</v>
       </c>
       <c r="L35" t="n">
-        <v>873.2513289427827</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>485.7719141005102</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037196</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152073</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,25 +37382,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
         <v>159.2338966127272</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.07383289911203</v>
+        <v>81.07383289911195</v>
       </c>
       <c r="K37" t="n">
-        <v>241.5430758303654</v>
+        <v>241.5430758303653</v>
       </c>
       <c r="L37" t="n">
-        <v>355.2527884562439</v>
+        <v>355.2527884562438</v>
       </c>
       <c r="M37" t="n">
-        <v>383.1287956795297</v>
+        <v>383.1287956795296</v>
       </c>
       <c r="N37" t="n">
-        <v>380.3523624535859</v>
+        <v>380.3523624535858</v>
       </c>
       <c r="O37" t="n">
-        <v>337.8485465086856</v>
+        <v>337.8485465086855</v>
       </c>
       <c r="P37" t="n">
-        <v>270.4524874311563</v>
+        <v>270.4524874311562</v>
       </c>
       <c r="Q37" t="n">
-        <v>113.8896548239395</v>
+        <v>113.8896548239394</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37546,22 +37546,22 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>700.1797891724565</v>
       </c>
       <c r="Q38" t="n">
-        <v>290.3191407170216</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
         <v>59.61319854222478</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.07383289911201</v>
+        <v>81.07383289911205</v>
       </c>
       <c r="K40" t="n">
         <v>241.5430758303654</v>
@@ -37707,7 +37707,7 @@
         <v>355.2527884562439</v>
       </c>
       <c r="M40" t="n">
-        <v>383.1287956795296</v>
+        <v>383.1287956795297</v>
       </c>
       <c r="N40" t="n">
         <v>380.3523624535859</v>
@@ -37716,10 +37716,10 @@
         <v>337.8485465086856</v>
       </c>
       <c r="P40" t="n">
-        <v>270.4524874311562</v>
+        <v>270.4524874311563</v>
       </c>
       <c r="Q40" t="n">
-        <v>113.8896548239394</v>
+        <v>113.8896548239395</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37783,7 +37783,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>463.2626313632505</v>
       </c>
       <c r="M41" t="n">
         <v>988.4346493230593</v>
@@ -37798,7 +37798,7 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>258.4668217746396</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
         <v>59.61319854222478</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.07383289911201</v>
+        <v>81.07383289911205</v>
       </c>
       <c r="K43" t="n">
         <v>241.5430758303654</v>
@@ -37944,7 +37944,7 @@
         <v>355.2527884562439</v>
       </c>
       <c r="M43" t="n">
-        <v>383.1287956795296</v>
+        <v>383.1287956795297</v>
       </c>
       <c r="N43" t="n">
         <v>380.3523624535859</v>
@@ -37953,10 +37953,10 @@
         <v>337.8485465086856</v>
       </c>
       <c r="P43" t="n">
-        <v>270.4524874311562</v>
+        <v>270.4524874311563</v>
       </c>
       <c r="Q43" t="n">
-        <v>113.8896548239394</v>
+        <v>113.8896548239395</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,28 +38017,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>547.3976928932483</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O44" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>686.8514215110488</v>
       </c>
       <c r="Q44" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.07383289911201</v>
+        <v>81.07383289911205</v>
       </c>
       <c r="K46" t="n">
         <v>241.5430758303654</v>
@@ -38181,19 +38181,19 @@
         <v>355.2527884562439</v>
       </c>
       <c r="M46" t="n">
-        <v>383.1287956795296</v>
+        <v>383.1287956795297</v>
       </c>
       <c r="N46" t="n">
-        <v>380.3523624535858</v>
+        <v>380.3523624535859</v>
       </c>
       <c r="O46" t="n">
         <v>337.8485465086856</v>
       </c>
       <c r="P46" t="n">
-        <v>270.4524874311562</v>
+        <v>270.4524874311563</v>
       </c>
       <c r="Q46" t="n">
-        <v>113.8896548239394</v>
+        <v>113.8896548239395</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
